--- a/biology/Botanique/Dendrobium/Dendrobium.xlsx
+++ b/biology/Botanique/Dendrobium/Dendrobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrobium est un genre de plantes de la famille des Orchidaceae originaire des régions subtropicales et tropicales d'Asie, d'Australie et de Nouvelle-Zélande. On dénombre 1 220 espèces[1] dans des biotopes variés.
-Le nom se compose des mots grecs δένδον (dendron) = arbre et βίος (bios) = vie (littéralement qui vit sur les arbres car toutes les espèces de ce genre d'orchidées sont essentiellement épiphytes[2], plus rarement lithophytes). Après Bulbophyllum, Dendrobium représente le deuxième genre le plus important des orchidées en nombre d'espèces. Le genre se caractérise par la tige constituée de pseudobulbes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrobium est un genre de plantes de la famille des Orchidaceae originaire des régions subtropicales et tropicales d'Asie, d'Australie et de Nouvelle-Zélande. On dénombre 1 220 espèces dans des biotopes variés.
+Le nom se compose des mots grecs δένδον (dendron) = arbre et βίος (bios) = vie (littéralement qui vit sur les arbres car toutes les espèces de ce genre d'orchidées sont essentiellement épiphytes, plus rarement lithophytes). Après Bulbophyllum, Dendrobium représente le deuxième genre le plus important des orchidées en nombre d'espèces. Le genre se caractérise par la tige constituée de pseudobulbes.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Noms en synonymie
-Dendrobium elegans Kunth, un synonyme de Stelis roseopunctata</t>
+          <t>Noms en synonymie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dendrobium elegans Kunth, un synonyme de Stelis roseopunctata</t>
         </is>
       </c>
     </row>
@@ -543,11 +560,48 @@
           <t>Classification des Dendrobium[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Du fait d'un très grand nombre d'espèces et de grandes variation morphologiques, ce genre  a été divisé en sous-genres et sections. Il existe de nombreux travaux de classification mais la classification de Schlechter qui date de 1912 est toujours reconnue. Elle est divisée en quatre sous-genres et 41 sections, que certains auteurs en taxinomie souhaiteraient élever au rang de genre. 
-Sous-genre Athecebium
-section Desmotrichum (Espèces qui sont dorénavant répertoriées dans le genre Flickingeria.)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait d'un très grand nombre d'espèces et de grandes variation morphologiques, ce genre  a été divisé en sous-genres et sections. Il existe de nombreux travaux de classification mais la classification de Schlechter qui date de 1912 est toujours reconnue. Elle est divisée en quatre sous-genres et 41 sections, que certains auteurs en taxinomie souhaiteraient élever au rang de genre. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dendrobium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrobium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification des Dendrobium[3]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Athecebium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>section Desmotrichum (Espèces qui sont dorénavant répertoriées dans le genre Flickingeria.)
 section Mycrophytanthe
 section Goniobulbon
 section Diplocaulobium (Élevée au rang de genre.)
@@ -558,9 +612,43 @@
 section Callista
 section Dendrocoryne
 section Latourea (section Latouria dans les publications actuelles)
-section Inobulbon (considérée comme un genre à part entière par certains auteurs.)
-Sous-genre Dendrobium
-section Eugenanthe (section Dendrobium dans les publications actuelles)
+section Inobulbon (considérée comme un genre à part entière par certains auteurs.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dendrobium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrobium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification des Dendrobium[3]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Dendrobium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>section Eugenanthe (section Dendrobium dans les publications actuelles)
 section Platycaulon
 section Pedilonum
 section Calyptrochilus
@@ -576,11 +664,79 @@
 section Distichophyllum
 section Oxygenianthe (section Formosae dans les publications actuelles)
 section Ambiyanthus (section Amblyanthus dans les publications actuelles)
-section Kinetochilus
-Sous-genre Rhopalabium
-section Rhopalanthe
-Sous-genre Xerobium
-section Aporum
+section Kinetochilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dendrobium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrobium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification des Dendrobium[3]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Rhopalabium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>section Rhopalanthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dendrobium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrobium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification des Dendrobium[3]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Xerobium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>section Aporum
 section Oxystophyllum
 section Gastridium (considérée comme un genre à part entière par certains auteurs.)
 section Dichopus
@@ -594,62 +750,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Dendrobium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dendrobium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est différente selon que les dendrobium sont de serre froide, tempérée ou chaude[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est différente selon que les dendrobium sont de serre froide, tempérée ou chaude.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Dendrobium</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dendrobium</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Quelques images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Quelques photographies d'orchidées Dendrobium
